--- a/BalanceSheet/INVH_bal.xlsx
+++ b/BalanceSheet/INVH_bal.xlsx
@@ -2461,7 +2461,7 @@
         <v>8295000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>8345000000.0</v>
+        <v>12861013000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>8723385000.0</v>
@@ -2543,7 +2543,7 @@
         <v>8660000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>8483000000.0</v>
+        <v>12953271000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>8804916000.0</v>
